--- a/指令流程表.xlsx
+++ b/指令流程表.xlsx
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2240,10 +2240,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2999,5 +2999,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>